--- a/biology/Botanique/Mendoncia/Mendoncia.xlsx
+++ b/biology/Botanique/Mendoncia/Mendoncia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mendoncia Vell. ex Vand. est un genre de plantes de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janvier 2018) :
 Mendoncia albiflora Leonard
 Mendoncia antioquiensis D.C. Wassh.
 Mendoncia aspera (Ruiz &amp; Pav.) Nees
@@ -599,7 +613,7 @@
 Mendoncia vinciflora Benoist
 Mendoncia williamsii D.C. Wassh.
 Mendoncia zarucchii D.C. Wassh.
-Selon NCBI  (9 janvier 2018)[3] :
+Selon NCBI  (9 janvier 2018) :
 Mendoncia aspera
 Mendoncia cowanii
 Mendoncia flagellaris
@@ -611,7 +625,7 @@
 Mendoncia phytocrenoides
 Mendoncia retusa
 Mendoncia velloziana
-Selon The Plant List            (9 janvier 2018)[4] :
+Selon The Plant List            (9 janvier 2018) :
 Mendoncia albiflora Leonard
 Mendoncia aspera Ruiz &amp; Pav.
 Mendoncia aurea Leonard
@@ -675,7 +689,7 @@
 Mendoncia villosa (Klotzsch &amp; H.Karst. ex Nees) Leonard
 Mendoncia vinciflora Benoist
 Mendoncia williamsii Wassh.
-Selon Tropicos                                           (9 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Mendoncia albida Vell.
 Mendoncia albiflora Leonard
 Mendoncia antioquiensis Wassh.
